--- a/biology/Botanique/Silène_(plante)/Silène_(plante).xlsx
+++ b/biology/Botanique/Silène_(plante)/Silène_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_(plante)</t>
+          <t>Silène_(plante)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene
 Les Silènes Écouter sont des plantes herbacées, annuelles ou vivaces du genre Silene appartenant à la famille des Caryophyllacées. Il comprend plus de 800 espèces, dont celles des anciens genres Cucubalus, Lychnis, Melandryum et Viscaria. Il s'étend sur les régions tempérées d'Europe, d'Amérique du Nord, d'Asie et d'Afrique. 
-La Silène est une plante sauvage que l'homme a parfois apprivoisée. Elle s'épanouit de manière spontanée dans les talus, les près et aux bords des routes[1].
+La Silène est une plante sauvage que l'homme a parfois apprivoisée. Elle s'épanouit de manière spontanée dans les talus, les près et aux bords des routes.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_(plante)</t>
+          <t>Silène_(plante)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre est certainement lié au personnage de Silène, père adoptif et précepteur de Dionysos, toujours représenté avec un ventre enflé semblable aux calices de nombreuses espèces, par exemple S. vulgaris (le Silène enflé) ou S. conica au calice en outre ou parce que les taches qu'on trouve sur les pétales de quelques Silènes ont la couleur du vin et rappellent ce dieu de l'ivrognerie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre est certainement lié au personnage de Silène, père adoptif et précepteur de Dionysos, toujours représenté avec un ventre enflé semblable aux calices de nombreuses espèces, par exemple S. vulgaris (le Silène enflé) ou S. conica au calice en outre ou parce que les taches qu'on trouve sur les pétales de quelques Silènes ont la couleur du vin et rappellent ce dieu de l'ivrognerie.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_(plante)</t>
+          <t>Silène_(plante)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes à feuilles opposées, glabres ou duveteuses. Les fleurs sont en grappes lâches. Le calice est tubulaire portant de 10 à 30 nervures et se termine par 5 dents. Les 5 pétales sont bilobés ou finement divisés en lanières. Il y a 10 étamines, et 3 (parfois 5) styles. Plusieurs espèces ont ou peuvent avoir des fleurs unisexuées (notamment S. dioica et S. latifolia). Dans ce cas le calice des fleurs femelles est généralement plus enflé que celui des fleurs mâles. Ce calice gamosépale enflé est peut-être une protection contre les bourdons munis d'un proboscis court (Bombus lucorum, Bombus terrestris, Bombus wurflenii) et qui ont tendance à perforer la base des sépales (laissant un trou caractéristique) pour atteindre le nectar produit par les petits nectaires sans assurer la pollinisation. Ce renflement est probablement un avantage adaptatif qui limite l'impact de ces pillards[3].
-Beaucoup de Silènes ne s'ouvrent pas avant le crépuscule. Elles dégagent un fort parfum qui attire sur une relative grande distance les papillons de nuit qui viennent sucer leur nectar[4]. Selon le principe de l'allocation des ressources, il existerait un compromis évolutif entre différents traits d'attractivité : les fleurs blanches pollinisées principalement par les papillons nocturnes pour qui la vue est accessoire, n'investissent pas dans la coloration des pétales mais émettent des odeurs florales (en) qui contribuent à l'attraction de ces pollinisateurs et leur guidage vers les organes reproducteurs[5],[6].
-Les fruits sont généralement des capsules loculicides (à 5 loges), portées par un "pied" et surmontées d'une couronne dentée qui se ferme par temps humide et s'ouvre en période sèche : ces mouvements assurent la dissémination des graines par autochorie[4]. Il faut enlever le calice qui est persistant pour voir ces capsules[7]. C'est une baie dans l'espèce Silene baccifera.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes à feuilles opposées, glabres ou duveteuses. Les fleurs sont en grappes lâches. Le calice est tubulaire portant de 10 à 30 nervures et se termine par 5 dents. Les 5 pétales sont bilobés ou finement divisés en lanières. Il y a 10 étamines, et 3 (parfois 5) styles. Plusieurs espèces ont ou peuvent avoir des fleurs unisexuées (notamment S. dioica et S. latifolia). Dans ce cas le calice des fleurs femelles est généralement plus enflé que celui des fleurs mâles. Ce calice gamosépale enflé est peut-être une protection contre les bourdons munis d'un proboscis court (Bombus lucorum, Bombus terrestris, Bombus wurflenii) et qui ont tendance à perforer la base des sépales (laissant un trou caractéristique) pour atteindre le nectar produit par les petits nectaires sans assurer la pollinisation. Ce renflement est probablement un avantage adaptatif qui limite l'impact de ces pillards.
+Beaucoup de Silènes ne s'ouvrent pas avant le crépuscule. Elles dégagent un fort parfum qui attire sur une relative grande distance les papillons de nuit qui viennent sucer leur nectar. Selon le principe de l'allocation des ressources, il existerait un compromis évolutif entre différents traits d'attractivité : les fleurs blanches pollinisées principalement par les papillons nocturnes pour qui la vue est accessoire, n'investissent pas dans la coloration des pétales mais émettent des odeurs florales (en) qui contribuent à l'attraction de ces pollinisateurs et leur guidage vers les organes reproducteurs,.
+Les fruits sont généralement des capsules loculicides (à 5 loges), portées par un "pied" et surmontées d'une couronne dentée qui se ferme par temps humide et s'ouvre en période sèche : ces mouvements assurent la dissémination des graines par autochorie. Il faut enlever le calice qui est persistant pour voir ces capsules. C'est une baie dans l'espèce Silene baccifera.
 À partir du tissu placentaire de fruits de Silene stenophylla stockés par des écureuils il y a plus de 32 000 ans et retrouvés dans du pergélisol en Sibérie, des chercheurs ont réussi à régénérer cette plante.
 </t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_(plante)</t>
+          <t>Silène_(plante)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +596,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Par région
+          <t>Par région</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Flore européenne (espèces présentes en France)
 Silene acaulis (L.) Jacq. - Silène acaule
 Silene alpestris Jacq.
 Silene apetala Willd.
 Silene armeria L. - Silène à bouquets ou Silène arméria
-Silene baccifera (L.) Roth - Coulichon[8]
+Silene baccifera (L.) Roth - Coulichon
 Silene badaroi Breistr.
 Silene behen L.
 Silene bellidifolia Juss. ex Jacq.
@@ -671,7 +693,7 @@
 Silene nocturna L. var. lasiocalix Soyer Willemet et Godron = S. cirtensis Pomel.
 Silene oranensis Hochreutiner
 Silene pendula L.
-Silene pomeli Batt [9]
+Silene pomeli Batt 
 Silene pseudo-vestita Batt
 Silene reverchoni Batt
 Silene tridentata Desf.
@@ -735,8 +757,43 @@
 Silene verecunda
 Silene virginica
 Silene wrightii
-Liste complète
-Selon Plants of the World online (POWO)                (23 avril 2022)[10], le genre comprend les 887 espèces suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Silène_(plante)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sil%C3%A8ne_(plante)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste complète</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (23 avril 2022), le genre comprend les 887 espèces suivantes :
 Silene abietum Font Quer &amp; Maire
 Silene abyssinica (Hochst.) H.Neumayer
 Silene acaulis (L.) Jacq.
@@ -1635,44 +1692,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sil%C3%A8ne_(plante)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sil%C3%A8ne_(plante)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prédateurs</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La chenille du papillon de nuit (hétérocère) suivant se nourrit de silène :
-sphinx tête de mort (Acherontia atropos Sphingidae).</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_(plante)</t>
+          <t>Silène_(plante)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1687,12 +1713,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La chenille du papillon de nuit (hétérocère) suivant se nourrit de silène :
+sphinx tête de mort (Acherontia atropos Sphingidae).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Silène_(plante)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sil%C3%A8ne_(plante)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pousses de silène sont comestibles[11].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pousses de silène sont comestibles.
 </t>
         </is>
       </c>
